--- a/BinarySearch/uploads/Flowers by Khansa November 2024.xlsx
+++ b/BinarySearch/uploads/Flowers by Khansa November 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\Xampp\htdocs\prototype-penjualan-bunga\BinarySearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BF785B-EC4D-4AB9-98DA-FB6DA66E6817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0412AFD4-28BD-4C08-A63F-3531F5DA54FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OKTOBER" sheetId="1" r:id="rId1"/>
@@ -296,8 +296,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$Rp-421]* #,##0.000_-;\-[$Rp-421]* #,##0.000_-;_-[$Rp-421]* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;Rp&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -440,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,10 +472,10 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -524,10 +524,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -536,14 +536,14 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -842,15 +842,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
@@ -4647,14 +4647,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" zoomScale="92" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView topLeftCell="A66" zoomScale="92" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="38" customWidth="1"/>
     <col min="3" max="3" width="22.58203125" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
@@ -4685,7 +4685,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4703,7 +4703,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4722,7 +4722,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -4741,7 +4741,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -4760,7 +4760,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -4779,7 +4779,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -4798,7 +4798,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -4817,7 +4817,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -4836,7 +4836,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -4855,7 +4855,7 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -4874,7 +4874,7 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -4893,7 +4893,7 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -4912,7 +4912,7 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -4931,7 +4931,7 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -4950,7 +4950,7 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -4969,7 +4969,7 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -4988,7 +4988,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -5007,7 +5007,7 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -5026,7 +5026,7 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -5045,7 +5045,7 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -5064,7 +5064,7 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -5083,7 +5083,7 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -5102,7 +5102,7 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -5121,7 +5121,7 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -5140,7 +5140,7 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -5159,7 +5159,7 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -5178,7 +5178,7 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -5197,7 +5197,7 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -5216,7 +5216,7 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -5235,7 +5235,7 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -5254,7 +5254,7 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -5273,7 +5273,7 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -5292,7 +5292,7 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -5311,7 +5311,7 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -5330,7 +5330,7 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -5349,7 +5349,7 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -5368,7 +5368,7 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -5387,7 +5387,7 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -5406,7 +5406,7 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -5425,7 +5425,7 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -5444,7 +5444,7 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -5463,7 +5463,7 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -5482,7 +5482,7 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -5501,7 +5501,7 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -5520,7 +5520,7 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -5539,7 +5539,7 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -5558,7 +5558,7 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -5577,7 +5577,7 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -5596,7 +5596,7 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -5615,7 +5615,7 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -5634,7 +5634,7 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -5653,7 +5653,7 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -5672,7 +5672,7 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -5691,7 +5691,7 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -5710,7 +5710,7 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -5729,7 +5729,7 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -5748,7 +5748,7 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -5767,7 +5767,7 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -5786,7 +5786,7 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -5805,7 +5805,7 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -5824,7 +5824,7 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -5843,7 +5843,7 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -5862,7 +5862,7 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -5881,7 +5881,7 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -5900,7 +5900,7 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -5919,7 +5919,7 @@
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -5938,7 +5938,7 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -5957,7 +5957,7 @@
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -5976,7 +5976,7 @@
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -5995,7 +5995,7 @@
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -6014,7 +6014,7 @@
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -6033,7 +6033,7 @@
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -6052,7 +6052,7 @@
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -6071,7 +6071,7 @@
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C75" s="7" t="s">
@@ -6090,7 +6090,7 @@
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -6109,7 +6109,7 @@
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -6128,7 +6128,7 @@
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C78" s="7" t="s">
@@ -6147,7 +6147,7 @@
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C79" s="7" t="s">
@@ -6166,7 +6166,7 @@
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C80" s="7" t="s">
@@ -6185,7 +6185,7 @@
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="7" t="s">
@@ -6204,7 +6204,7 @@
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -6223,7 +6223,7 @@
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C83" s="7" t="s">
@@ -6242,7 +6242,7 @@
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C84" s="7" t="s">
@@ -6261,7 +6261,7 @@
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -6280,7 +6280,7 @@
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -6299,7 +6299,7 @@
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C87" s="7" t="s">
@@ -6318,7 +6318,7 @@
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -6337,7 +6337,7 @@
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -6356,7 +6356,7 @@
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -6375,7 +6375,7 @@
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -6394,7 +6394,7 @@
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -6413,7 +6413,7 @@
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -6432,7 +6432,7 @@
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="7" t="s">
@@ -6451,7 +6451,7 @@
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -6470,7 +6470,7 @@
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="38" t="s">
+      <c r="B96" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C96" s="7" t="s">
@@ -6489,7 +6489,7 @@
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C97" s="7" t="s">
@@ -6508,7 +6508,7 @@
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C98" s="7" t="s">
@@ -6527,7 +6527,7 @@
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C99" s="7" t="s">
@@ -6546,7 +6546,7 @@
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -6565,7 +6565,7 @@
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="B101" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C101" s="11" t="s">
@@ -6584,7 +6584,7 @@
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -6603,7 +6603,7 @@
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -6622,7 +6622,7 @@
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -6641,7 +6641,7 @@
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C105" s="7" t="s">
@@ -6660,7 +6660,7 @@
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="38" t="s">
+      <c r="B106" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -6679,7 +6679,7 @@
       <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="B107" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -6698,7 +6698,7 @@
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C108" s="7" t="s">
@@ -6717,7 +6717,7 @@
       <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="B109" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -6736,7 +6736,7 @@
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C110" s="7" t="s">
@@ -6755,7 +6755,7 @@
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="38" t="s">
+      <c r="B111" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C111" s="7" t="s">
@@ -6774,7 +6774,7 @@
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="38" t="s">
+      <c r="B112" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -6793,7 +6793,7 @@
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="38" t="s">
+      <c r="B113" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C113" s="7" t="s">
@@ -6812,7 +6812,7 @@
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="38" t="s">
+      <c r="B114" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C114" s="7" t="s">
@@ -6831,7 +6831,7 @@
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C115" s="7" t="s">
@@ -6850,7 +6850,7 @@
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -6869,7 +6869,7 @@
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="38" t="s">
+      <c r="B117" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C117" s="7" t="s">
@@ -6888,7 +6888,7 @@
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="38" t="s">
+      <c r="B118" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C118" s="7" t="s">
@@ -6907,7 +6907,7 @@
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="38" t="s">
+      <c r="B119" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C119" s="7" t="s">
@@ -6926,7 +6926,7 @@
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="38" t="s">
+      <c r="B120" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C120" s="7" t="s">
@@ -6945,7 +6945,7 @@
       <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="38" t="s">
+      <c r="B121" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C121" s="7" t="s">
@@ -6964,7 +6964,7 @@
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C122" s="7" t="s">
@@ -6983,7 +6983,7 @@
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="B123" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C123" s="7" t="s">
@@ -7002,7 +7002,7 @@
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C124" s="7" t="s">
@@ -7021,7 +7021,7 @@
       <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C125" s="7" t="s">
@@ -7040,7 +7040,7 @@
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B126" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -7059,7 +7059,7 @@
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="38" t="s">
+      <c r="B127" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C127" s="7" t="s">
@@ -7078,7 +7078,7 @@
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C128" s="7" t="s">
@@ -7097,7 +7097,7 @@
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C129" s="7" t="s">
@@ -7116,7 +7116,7 @@
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="38" t="s">
+      <c r="B130" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C130" s="7" t="s">
@@ -7135,7 +7135,7 @@
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B131" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C131" s="7" t="s">
@@ -7154,7 +7154,7 @@
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C132" s="7" t="s">
@@ -7173,7 +7173,7 @@
       <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="38" t="s">
+      <c r="B133" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C133" s="7" t="s">
@@ -7192,7 +7192,7 @@
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -7211,7 +7211,7 @@
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C135" s="7" t="s">
@@ -7230,7 +7230,7 @@
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="38" t="s">
+      <c r="B136" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C136" s="7" t="s">
@@ -7249,7 +7249,7 @@
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="B137" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -7268,7 +7268,7 @@
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="B138" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C138" s="7" t="s">
@@ -7287,7 +7287,7 @@
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="B139" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C139" s="7" t="s">
@@ -7306,7 +7306,7 @@
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="38" t="s">
+      <c r="B140" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C140" s="7" t="s">
@@ -7325,7 +7325,7 @@
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C141" s="7" t="s">
@@ -7344,7 +7344,7 @@
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -7363,7 +7363,7 @@
       <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="B143" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -7382,7 +7382,7 @@
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="B144" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C144" s="7" t="s">
@@ -7401,7 +7401,7 @@
       <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="38" t="s">
+      <c r="B145" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -7420,7 +7420,7 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="38" t="s">
+      <c r="B146" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C146" s="7" t="s">
@@ -7439,7 +7439,7 @@
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="B147" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C147" s="7" t="s">
@@ -7458,7 +7458,7 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="38" t="s">
+      <c r="B148" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C148" s="7" t="s">
@@ -7477,7 +7477,7 @@
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="38" t="s">
+      <c r="B149" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -7496,7 +7496,7 @@
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="38" t="s">
+      <c r="B150" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C150" s="7" t="s">
@@ -7515,7 +7515,7 @@
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="B151" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C151" s="7" t="s">
@@ -7534,7 +7534,7 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C152" s="7" t="s">
@@ -7553,7 +7553,7 @@
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="38" t="s">
+      <c r="B153" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -7572,7 +7572,7 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="38" t="s">
+      <c r="B154" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C154" s="7" t="s">
@@ -7591,7 +7591,7 @@
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="38" t="s">
+      <c r="B155" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C155" s="7" t="s">
@@ -7610,7 +7610,7 @@
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="38" t="s">
+      <c r="B156" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C156" s="7" t="s">
@@ -7629,7 +7629,7 @@
       <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="B157" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C157" s="7" t="s">
@@ -7648,7 +7648,7 @@
       <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="B158" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C158" s="7" t="s">
@@ -7667,7 +7667,7 @@
       <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="B159" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -7686,7 +7686,7 @@
       <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C160" s="7" t="s">
@@ -7705,7 +7705,7 @@
       <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B161" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C161" s="7" t="s">
@@ -7724,7 +7724,7 @@
       <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C162" s="7" t="s">
@@ -7743,7 +7743,7 @@
       <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="B163" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C163" s="7" t="s">
@@ -7762,7 +7762,7 @@
       <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C164" s="7" t="s">
@@ -7781,7 +7781,7 @@
       <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -7800,7 +7800,7 @@
       <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="38" t="s">
+      <c r="B166" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C166" s="7" t="s">
@@ -7819,7 +7819,7 @@
       <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="B167" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -7838,7 +7838,7 @@
       <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="38" t="s">
+      <c r="B168" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C168" s="7" t="s">
@@ -7857,7 +7857,7 @@
       <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="B169" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C169" s="7" t="s">
@@ -7876,7 +7876,7 @@
       <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="B170" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -7895,7 +7895,7 @@
       <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C171" s="7" t="s">
@@ -7914,7 +7914,7 @@
       <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="38" t="s">
+      <c r="B172" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C172" s="7" t="s">
@@ -7933,7 +7933,7 @@
       <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C173" s="7" t="s">
@@ -7952,7 +7952,7 @@
       <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -7971,7 +7971,7 @@
       <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="B175" s="38" t="s">
+      <c r="B175" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C175" s="7" t="s">
@@ -7990,7 +7990,7 @@
       <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="B176" s="38" t="s">
+      <c r="B176" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C176" s="7" t="s">
@@ -8009,7 +8009,7 @@
       <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="B177" s="38" t="s">
+      <c r="B177" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C177" s="7" t="s">
@@ -8028,7 +8028,7 @@
       <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="B178" s="38" t="s">
+      <c r="B178" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -8047,7 +8047,7 @@
       <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="B179" s="38" t="s">
+      <c r="B179" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -8066,7 +8066,7 @@
       <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C180" s="7" t="s">
@@ -8085,7 +8085,7 @@
       <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B181" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C181" s="7" t="s">
@@ -8104,7 +8104,7 @@
       <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B182" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C182" s="7" t="s">
@@ -8123,7 +8123,7 @@
       <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C183" s="7" t="s">
@@ -8142,7 +8142,7 @@
       <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C184" s="7" t="s">
@@ -8161,7 +8161,7 @@
       <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C185" s="7" t="s">
@@ -8180,7 +8180,7 @@
       <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C186" s="7" t="s">
@@ -8199,7 +8199,7 @@
       <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="B187" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C187" s="7" t="s">
@@ -8218,7 +8218,7 @@
       <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="B188" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C188" s="7" t="s">
@@ -8237,7 +8237,7 @@
       <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C189" s="7" t="s">
@@ -8256,7 +8256,7 @@
       <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C190" s="7" t="s">
@@ -8275,7 +8275,7 @@
       <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="B191" s="38" t="s">
+      <c r="B191" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -8294,7 +8294,7 @@
       <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="B192" s="38" t="s">
+      <c r="B192" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C192" s="7" t="s">
@@ -8313,7 +8313,7 @@
       <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="B193" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C193" s="7" t="s">
@@ -8332,7 +8332,7 @@
       <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C194" s="7" t="s">
@@ -8351,7 +8351,7 @@
       <c r="A195" s="7">
         <v>194</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C195" s="7" t="s">
@@ -8370,7 +8370,7 @@
       <c r="A196" s="7">
         <v>195</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C196" s="7" t="s">
@@ -8389,7 +8389,7 @@
       <c r="A197" s="7">
         <v>196</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C197" s="7" t="s">
@@ -8408,7 +8408,7 @@
       <c r="A198" s="7">
         <v>197</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C198" s="7" t="s">
@@ -8427,7 +8427,7 @@
       <c r="A199" s="7">
         <v>198</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B199" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -8446,7 +8446,7 @@
       <c r="A200" s="7">
         <v>199</v>
       </c>
-      <c r="B200" s="38" t="s">
+      <c r="B200" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C200" s="7" t="s">
@@ -8465,7 +8465,7 @@
       <c r="A201" s="7">
         <v>200</v>
       </c>
-      <c r="B201" s="38" t="s">
+      <c r="B201" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -8484,7 +8484,7 @@
       <c r="A202" s="7">
         <v>201</v>
       </c>
-      <c r="B202" s="38" t="s">
+      <c r="B202" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C202" s="7" t="s">
@@ -8503,7 +8503,7 @@
       <c r="A203" s="7">
         <v>202</v>
       </c>
-      <c r="B203" s="38" t="s">
+      <c r="B203" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -8522,7 +8522,7 @@
       <c r="A204" s="7">
         <v>203</v>
       </c>
-      <c r="B204" s="38" t="s">
+      <c r="B204" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C204" s="7" t="s">
@@ -8541,7 +8541,7 @@
       <c r="A205" s="7">
         <v>204</v>
       </c>
-      <c r="B205" s="38" t="s">
+      <c r="B205" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C205" s="7" t="s">
@@ -8560,7 +8560,7 @@
       <c r="A206" s="7">
         <v>205</v>
       </c>
-      <c r="B206" s="38" t="s">
+      <c r="B206" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C206" s="7" t="s">
@@ -8579,7 +8579,7 @@
       <c r="A207" s="7">
         <v>206</v>
       </c>
-      <c r="B207" s="38" t="s">
+      <c r="B207" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -8598,7 +8598,7 @@
       <c r="A208" s="7">
         <v>207</v>
       </c>
-      <c r="B208" s="38" t="s">
+      <c r="B208" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C208" s="7" t="s">
@@ -8617,7 +8617,7 @@
       <c r="A209" s="7">
         <v>208</v>
       </c>
-      <c r="B209" s="38" t="s">
+      <c r="B209" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C209" s="7" t="s">
@@ -8636,7 +8636,7 @@
       <c r="A210" s="7">
         <v>209</v>
       </c>
-      <c r="B210" s="38" t="s">
+      <c r="B210" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C210" s="7" t="s">
@@ -8655,7 +8655,7 @@
       <c r="A211" s="7">
         <v>210</v>
       </c>
-      <c r="B211" s="38" t="s">
+      <c r="B211" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C211" s="7" t="s">
@@ -8674,7 +8674,7 @@
       <c r="A212" s="7">
         <v>211</v>
       </c>
-      <c r="B212" s="38" t="s">
+      <c r="B212" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C212" s="7" t="s">
@@ -8693,7 +8693,7 @@
       <c r="A213" s="7">
         <v>212</v>
       </c>
-      <c r="B213" s="38" t="s">
+      <c r="B213" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C213" s="7" t="s">
@@ -8712,7 +8712,7 @@
       <c r="A214" s="7">
         <v>213</v>
       </c>
-      <c r="B214" s="38" t="s">
+      <c r="B214" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C214" s="7" t="s">
@@ -8731,7 +8731,7 @@
       <c r="A215" s="7">
         <v>214</v>
       </c>
-      <c r="B215" s="38" t="s">
+      <c r="B215" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C215" s="7" t="s">
@@ -8750,7 +8750,7 @@
       <c r="A216" s="7">
         <v>215</v>
       </c>
-      <c r="B216" s="38" t="s">
+      <c r="B216" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C216" s="7" t="s">
@@ -8769,7 +8769,7 @@
       <c r="A217" s="7">
         <v>216</v>
       </c>
-      <c r="B217" s="38" t="s">
+      <c r="B217" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C217" s="7" t="s">
@@ -8794,14 +8794,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScale="86" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="A194" zoomScale="86" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="39" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="16.08203125" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
@@ -8832,7 +8832,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -8851,7 +8851,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -8870,7 +8870,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -8889,7 +8889,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -8908,7 +8908,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -8927,7 +8927,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -8946,7 +8946,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -8965,7 +8965,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -8984,7 +8984,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -9003,7 +9003,7 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -9022,7 +9022,7 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -9041,7 +9041,7 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -9060,7 +9060,7 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -9079,7 +9079,7 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -9098,7 +9098,7 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -9117,7 +9117,7 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -9136,7 +9136,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -9155,7 +9155,7 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -9174,7 +9174,7 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -9193,7 +9193,7 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -9212,7 +9212,7 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -9231,7 +9231,7 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -9250,7 +9250,7 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -9269,7 +9269,7 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -9288,7 +9288,7 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -9307,7 +9307,7 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -9326,7 +9326,7 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -9345,7 +9345,7 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -9364,7 +9364,7 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -9383,7 +9383,7 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -9402,7 +9402,7 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -9421,7 +9421,7 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -9440,7 +9440,7 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -9459,7 +9459,7 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -9477,7 +9477,7 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -9496,7 +9496,7 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -9515,7 +9515,7 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -9534,7 +9534,7 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -9553,7 +9553,7 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -9572,7 +9572,7 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -9591,7 +9591,7 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -9609,7 +9609,7 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -9628,7 +9628,7 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -9647,7 +9647,7 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -9666,7 +9666,7 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -9685,7 +9685,7 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -9704,7 +9704,7 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -9723,7 +9723,7 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -9742,7 +9742,7 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -9761,7 +9761,7 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -9780,7 +9780,7 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -9799,7 +9799,7 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -9818,7 +9818,7 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -9837,7 +9837,7 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -9856,7 +9856,7 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -9875,7 +9875,7 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -9894,7 +9894,7 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -9913,7 +9913,7 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -9932,7 +9932,7 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -9951,7 +9951,7 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -9970,7 +9970,7 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -9989,7 +9989,7 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -10008,7 +10008,7 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -10027,7 +10027,7 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -10046,7 +10046,7 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -10065,7 +10065,7 @@
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -10084,7 +10084,7 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -10103,7 +10103,7 @@
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -10122,7 +10122,7 @@
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -10141,7 +10141,7 @@
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -10160,7 +10160,7 @@
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -10179,7 +10179,7 @@
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -10198,7 +10198,7 @@
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -10217,7 +10217,7 @@
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C75" s="12" t="s">
@@ -10236,7 +10236,7 @@
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C76" s="12" t="s">
@@ -10255,7 +10255,7 @@
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -10274,7 +10274,7 @@
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="12" t="s">
@@ -10293,7 +10293,7 @@
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C79" s="12" t="s">
@@ -10312,7 +10312,7 @@
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C80" s="12" t="s">
@@ -10331,7 +10331,7 @@
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C81" s="12" t="s">
@@ -10350,7 +10350,7 @@
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C82" s="12" t="s">
@@ -10369,7 +10369,7 @@
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C83" s="7" t="s">
@@ -10387,7 +10387,7 @@
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C84" s="7" t="s">
@@ -10406,7 +10406,7 @@
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -10425,7 +10425,7 @@
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -10444,7 +10444,7 @@
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C87" s="7" t="s">
@@ -10463,7 +10463,7 @@
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -10482,7 +10482,7 @@
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -10501,7 +10501,7 @@
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -10520,7 +10520,7 @@
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -10539,7 +10539,7 @@
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -10558,7 +10558,7 @@
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -10577,7 +10577,7 @@
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C94" s="7" t="s">
@@ -10596,7 +10596,7 @@
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -10615,7 +10615,7 @@
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="38" t="s">
+      <c r="B96" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C96" s="7" t="s">
@@ -10634,7 +10634,7 @@
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C97" s="7" t="s">
@@ -10653,7 +10653,7 @@
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="7" t="s">
@@ -10672,7 +10672,7 @@
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C99" s="9" t="s">
@@ -10691,7 +10691,7 @@
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C100" s="9" t="s">
@@ -10710,7 +10710,7 @@
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="B101" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C101" s="9" t="s">
@@ -10729,7 +10729,7 @@
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C102" s="9" t="s">
@@ -10748,7 +10748,7 @@
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C103" s="9" t="s">
@@ -10767,7 +10767,7 @@
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C104" s="9" t="s">
@@ -10786,7 +10786,7 @@
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C105" s="9" t="s">
@@ -10805,7 +10805,7 @@
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="38" t="s">
+      <c r="B106" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -10824,7 +10824,7 @@
       <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="B107" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C107" s="9" t="s">
@@ -10843,7 +10843,7 @@
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C108" s="9" t="s">
@@ -10862,7 +10862,7 @@
       <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="B109" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C109" s="9" t="s">
@@ -10881,7 +10881,7 @@
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C110" s="9" t="s">
@@ -10900,7 +10900,7 @@
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="38" t="s">
+      <c r="B111" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C111" s="9" t="s">
@@ -10919,7 +10919,7 @@
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="38" t="s">
+      <c r="B112" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C112" s="9" t="s">
@@ -10938,7 +10938,7 @@
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="38" t="s">
+      <c r="B113" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C113" s="9" t="s">
@@ -10957,7 +10957,7 @@
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="38" t="s">
+      <c r="B114" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C114" s="9" t="s">
@@ -10976,7 +10976,7 @@
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C115" s="9" t="s">
@@ -10995,7 +10995,7 @@
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C116" s="9" t="s">
@@ -11014,7 +11014,7 @@
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="38" t="s">
+      <c r="B117" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C117" s="9" t="s">
@@ -11033,7 +11033,7 @@
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="38" t="s">
+      <c r="B118" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -11052,7 +11052,7 @@
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="38" t="s">
+      <c r="B119" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C119" s="7" t="s">
@@ -11071,7 +11071,7 @@
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="38" t="s">
+      <c r="B120" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C120" s="8" t="s">
@@ -11090,7 +11090,7 @@
       <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="38" t="s">
+      <c r="B121" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C121" s="7" t="s">
@@ -11109,7 +11109,7 @@
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C122" s="7" t="s">
@@ -11128,7 +11128,7 @@
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="B123" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C123" s="7" t="s">
@@ -11147,7 +11147,7 @@
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C124" s="7" t="s">
@@ -11166,7 +11166,7 @@
       <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C125" s="7" t="s">
@@ -11185,7 +11185,7 @@
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B126" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -11204,7 +11204,7 @@
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="38" t="s">
+      <c r="B127" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C127" s="7" t="s">
@@ -11223,7 +11223,7 @@
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C128" s="7" t="s">
@@ -11242,7 +11242,7 @@
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C129" s="7" t="s">
@@ -11261,7 +11261,7 @@
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="38" t="s">
+      <c r="B130" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C130" s="9" t="s">
@@ -11279,7 +11279,7 @@
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B131" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C131" s="7" t="s">
@@ -11298,7 +11298,7 @@
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C132" s="7" t="s">
@@ -11317,7 +11317,7 @@
       <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="38" t="s">
+      <c r="B133" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C133" s="7" t="s">
@@ -11336,7 +11336,7 @@
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -11355,7 +11355,7 @@
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C135" s="7" t="s">
@@ -11374,7 +11374,7 @@
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="38" t="s">
+      <c r="B136" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C136" s="7" t="s">
@@ -11393,7 +11393,7 @@
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="B137" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -11412,7 +11412,7 @@
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="B138" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C138" s="7" t="s">
@@ -11431,7 +11431,7 @@
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="B139" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C139" s="7" t="s">
@@ -11450,7 +11450,7 @@
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="38" t="s">
+      <c r="B140" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C140" s="7" t="s">
@@ -11469,7 +11469,7 @@
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C141" s="7" t="s">
@@ -11488,7 +11488,7 @@
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -11507,7 +11507,7 @@
       <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="B143" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -11526,7 +11526,7 @@
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="B144" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C144" s="7" t="s">
@@ -11545,7 +11545,7 @@
       <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="38" t="s">
+      <c r="B145" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -11564,7 +11564,7 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="38" t="s">
+      <c r="B146" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C146" s="7" t="s">
@@ -11583,7 +11583,7 @@
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="B147" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C147" s="7" t="s">
@@ -11602,7 +11602,7 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="38" t="s">
+      <c r="B148" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C148" s="7" t="s">
@@ -11621,7 +11621,7 @@
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="38" t="s">
+      <c r="B149" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -11640,7 +11640,7 @@
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="38" t="s">
+      <c r="B150" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C150" s="7" t="s">
@@ -11659,7 +11659,7 @@
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="B151" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C151" s="7" t="s">
@@ -11678,7 +11678,7 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C152" s="7" t="s">
@@ -11697,7 +11697,7 @@
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="38" t="s">
+      <c r="B153" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -11716,7 +11716,7 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="38" t="s">
+      <c r="B154" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C154" s="7" t="s">
@@ -11734,7 +11734,7 @@
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="38" t="s">
+      <c r="B155" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C155" s="7" t="s">
@@ -11753,7 +11753,7 @@
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="38" t="s">
+      <c r="B156" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C156" s="7" t="s">
@@ -11772,7 +11772,7 @@
       <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="B157" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C157" s="7" t="s">
@@ -11791,7 +11791,7 @@
       <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="B158" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C158" s="7" t="s">
@@ -11810,7 +11810,7 @@
       <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="B159" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -11829,7 +11829,7 @@
       <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C160" s="7" t="s">
@@ -11848,7 +11848,7 @@
       <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B161" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C161" s="12" t="s">
@@ -11867,7 +11867,7 @@
       <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C162" s="7" t="s">
@@ -11886,7 +11886,7 @@
       <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="B163" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C163" s="7" t="s">
@@ -11905,7 +11905,7 @@
       <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C164" s="7" t="s">
@@ -11924,7 +11924,7 @@
       <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -11943,7 +11943,7 @@
       <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="38" t="s">
+      <c r="B166" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C166" s="7" t="s">
@@ -11962,7 +11962,7 @@
       <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="B167" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -11981,7 +11981,7 @@
       <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="38" t="s">
+      <c r="B168" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C168" s="7" t="s">
@@ -12000,7 +12000,7 @@
       <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="B169" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C169" s="7" t="s">
@@ -12019,7 +12019,7 @@
       <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="B170" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -12038,7 +12038,7 @@
       <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C171" s="7" t="s">
@@ -12057,7 +12057,7 @@
       <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="38" t="s">
+      <c r="B172" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C172" s="7" t="s">
@@ -12076,7 +12076,7 @@
       <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C173" s="7" t="s">
@@ -12095,7 +12095,7 @@
       <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -12114,7 +12114,7 @@
       <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="B175" s="38" t="s">
+      <c r="B175" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C175" s="7" t="s">
@@ -12133,7 +12133,7 @@
       <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="B176" s="38" t="s">
+      <c r="B176" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C176" s="7" t="s">
@@ -12152,7 +12152,7 @@
       <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="B177" s="38" t="s">
+      <c r="B177" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C177" s="7" t="s">
@@ -12171,7 +12171,7 @@
       <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="B178" s="38" t="s">
+      <c r="B178" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -12190,7 +12190,7 @@
       <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="B179" s="38" t="s">
+      <c r="B179" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -12209,7 +12209,7 @@
       <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C180" s="7" t="s">
@@ -12228,7 +12228,7 @@
       <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B181" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C181" s="7" t="s">
@@ -12247,7 +12247,7 @@
       <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B182" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C182" s="7" t="s">
@@ -12266,7 +12266,7 @@
       <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C183" s="7" t="s">
@@ -12285,7 +12285,7 @@
       <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C184" s="7" t="s">
@@ -12304,7 +12304,7 @@
       <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C185" s="7" t="s">
@@ -12323,7 +12323,7 @@
       <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C186" s="11" t="s">
@@ -12342,7 +12342,7 @@
       <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="B187" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C187" s="7" t="s">
@@ -12361,7 +12361,7 @@
       <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="B188" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C188" s="7" t="s">
@@ -12380,7 +12380,7 @@
       <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C189" s="7" t="s">
@@ -12399,7 +12399,7 @@
       <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C190" s="7" t="s">
@@ -12418,7 +12418,7 @@
       <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="B191" s="38" t="s">
+      <c r="B191" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -12437,7 +12437,7 @@
       <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="B192" s="38" t="s">
+      <c r="B192" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C192" s="7" t="s">
@@ -12456,7 +12456,7 @@
       <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="B193" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C193" s="7" t="s">
@@ -12475,7 +12475,7 @@
       <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C194" s="7" t="s">
@@ -12494,7 +12494,7 @@
       <c r="A195" s="7">
         <v>194</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C195" s="11" t="s">
@@ -12512,7 +12512,7 @@
       <c r="A196" s="7">
         <v>195</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C196" s="7" t="s">
@@ -12531,7 +12531,7 @@
       <c r="A197" s="7">
         <v>196</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C197" s="7" t="s">
@@ -12550,7 +12550,7 @@
       <c r="A198" s="7">
         <v>197</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C198" s="7" t="s">
@@ -12569,7 +12569,7 @@
       <c r="A199" s="7">
         <v>198</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B199" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -12588,7 +12588,7 @@
       <c r="A200" s="7">
         <v>199</v>
       </c>
-      <c r="B200" s="38" t="s">
+      <c r="B200" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C200" s="7" t="s">
@@ -12607,7 +12607,7 @@
       <c r="A201" s="7">
         <v>200</v>
       </c>
-      <c r="B201" s="38" t="s">
+      <c r="B201" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -12626,7 +12626,7 @@
       <c r="A202" s="7">
         <v>201</v>
       </c>
-      <c r="B202" s="38" t="s">
+      <c r="B202" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C202" s="7" t="s">
@@ -12645,7 +12645,7 @@
       <c r="A203" s="7">
         <v>202</v>
       </c>
-      <c r="B203" s="38" t="s">
+      <c r="B203" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -12664,7 +12664,7 @@
       <c r="A204" s="7">
         <v>203</v>
       </c>
-      <c r="B204" s="38" t="s">
+      <c r="B204" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C204" s="7" t="s">
@@ -12683,7 +12683,7 @@
       <c r="A205" s="7">
         <v>204</v>
       </c>
-      <c r="B205" s="38" t="s">
+      <c r="B205" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C205" s="7" t="s">
@@ -12702,7 +12702,7 @@
       <c r="A206" s="7">
         <v>205</v>
       </c>
-      <c r="B206" s="38" t="s">
+      <c r="B206" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C206" s="7" t="s">
@@ -12721,7 +12721,7 @@
       <c r="A207" s="7">
         <v>206</v>
       </c>
-      <c r="B207" s="38" t="s">
+      <c r="B207" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -12740,7 +12740,7 @@
       <c r="A208" s="7">
         <v>207</v>
       </c>
-      <c r="B208" s="38" t="s">
+      <c r="B208" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C208" s="7" t="s">
@@ -12764,14 +12764,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E4"/>
+    <sheetView zoomScale="67" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
@@ -12802,7 +12802,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -12821,7 +12821,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -12840,7 +12840,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -12859,7 +12859,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -12878,7 +12878,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -12897,7 +12897,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -12916,7 +12916,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -12935,7 +12935,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -12954,7 +12954,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -12973,7 +12973,7 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -12992,7 +12992,7 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -13011,7 +13011,7 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -13030,7 +13030,7 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -13049,7 +13049,7 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -13068,7 +13068,7 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -13087,7 +13087,7 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -13106,7 +13106,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -13125,7 +13125,7 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -13144,7 +13144,7 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -13163,7 +13163,7 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -13182,7 +13182,7 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -13201,7 +13201,7 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -13220,7 +13220,7 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -13239,7 +13239,7 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -13258,7 +13258,7 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -13277,7 +13277,7 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -13296,7 +13296,7 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -13315,7 +13315,7 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -13334,7 +13334,7 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -13353,7 +13353,7 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -13372,7 +13372,7 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -13391,7 +13391,7 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -13410,7 +13410,7 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -13429,7 +13429,7 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -13448,7 +13448,7 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -13467,7 +13467,7 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -13486,7 +13486,7 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -13505,7 +13505,7 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -13524,7 +13524,7 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -13543,7 +13543,7 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -13562,7 +13562,7 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -13581,7 +13581,7 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -13600,7 +13600,7 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -13619,7 +13619,7 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -13638,7 +13638,7 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -13657,7 +13657,7 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -13676,7 +13676,7 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -13695,7 +13695,7 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -13714,7 +13714,7 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -13733,7 +13733,7 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -13752,7 +13752,7 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -13771,7 +13771,7 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -13790,7 +13790,7 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -13809,7 +13809,7 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -13828,7 +13828,7 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -13846,7 +13846,7 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -13865,7 +13865,7 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -13884,7 +13884,7 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -13903,7 +13903,7 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -13922,7 +13922,7 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -13941,7 +13941,7 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -13960,7 +13960,7 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C63" s="12" t="s">
@@ -13979,7 +13979,7 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -13998,7 +13998,7 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -14017,7 +14017,7 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -14036,7 +14036,7 @@
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -14055,7 +14055,7 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -14074,7 +14074,7 @@
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -14093,7 +14093,7 @@
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -14112,7 +14112,7 @@
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -14131,7 +14131,7 @@
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -14150,7 +14150,7 @@
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -14169,7 +14169,7 @@
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -14188,7 +14188,7 @@
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C75" s="7" t="s">
@@ -14207,7 +14207,7 @@
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -14226,7 +14226,7 @@
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -14245,7 +14245,7 @@
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C78" s="7" t="s">
@@ -14264,7 +14264,7 @@
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C79" s="7" t="s">
@@ -14283,7 +14283,7 @@
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C80" s="7" t="s">
@@ -14302,7 +14302,7 @@
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C81" s="7" t="s">
@@ -14321,7 +14321,7 @@
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -14340,7 +14340,7 @@
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C83" s="7" t="s">
@@ -14359,7 +14359,7 @@
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C84" s="7" t="s">
@@ -14378,7 +14378,7 @@
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -14397,7 +14397,7 @@
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -14416,7 +14416,7 @@
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C87" s="7" t="s">
@@ -14435,7 +14435,7 @@
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -14454,7 +14454,7 @@
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -14473,7 +14473,7 @@
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -14492,7 +14492,7 @@
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C91" s="7" t="s">
@@ -14511,7 +14511,7 @@
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -14530,7 +14530,7 @@
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -14549,7 +14549,7 @@
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C94" s="7" t="s">
@@ -14568,7 +14568,7 @@
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -14587,7 +14587,7 @@
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="38" t="s">
+      <c r="B96" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C96" s="7" t="s">
@@ -14606,7 +14606,7 @@
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C97" s="7" t="s">
@@ -14625,7 +14625,7 @@
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C98" s="7" t="s">
@@ -14644,7 +14644,7 @@
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C99" s="7" t="s">
@@ -14663,7 +14663,7 @@
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -14682,7 +14682,7 @@
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="B101" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C101" s="7" t="s">
@@ -14701,7 +14701,7 @@
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -14720,7 +14720,7 @@
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -14739,7 +14739,7 @@
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -14758,7 +14758,7 @@
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C105" s="7" t="s">
@@ -14777,7 +14777,7 @@
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="38" t="s">
+      <c r="B106" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -14796,7 +14796,7 @@
       <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="B107" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -14815,7 +14815,7 @@
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C108" s="7" t="s">
@@ -14834,7 +14834,7 @@
       <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="B109" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -14853,7 +14853,7 @@
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C110" s="7" t="s">
@@ -14872,7 +14872,7 @@
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="38" t="s">
+      <c r="B111" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C111" s="7" t="s">
@@ -14891,7 +14891,7 @@
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="38" t="s">
+      <c r="B112" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -14910,7 +14910,7 @@
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="38" t="s">
+      <c r="B113" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C113" s="7" t="s">
@@ -14929,7 +14929,7 @@
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="38" t="s">
+      <c r="B114" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C114" s="7" t="s">
@@ -14948,7 +14948,7 @@
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C115" s="7" t="s">
@@ -14967,7 +14967,7 @@
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -14986,7 +14986,7 @@
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="38" t="s">
+      <c r="B117" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C117" s="7" t="s">
@@ -15005,7 +15005,7 @@
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="38" t="s">
+      <c r="B118" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -15024,7 +15024,7 @@
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="38" t="s">
+      <c r="B119" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C119" s="7" t="s">
@@ -15043,7 +15043,7 @@
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="38" t="s">
+      <c r="B120" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C120" s="7" t="s">
@@ -15062,7 +15062,7 @@
       <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="38" t="s">
+      <c r="B121" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C121" s="7" t="s">
@@ -15081,7 +15081,7 @@
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C122" s="7" t="s">
@@ -15100,7 +15100,7 @@
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="B123" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C123" s="7" t="s">
@@ -15119,7 +15119,7 @@
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C124" s="7" t="s">
@@ -15138,7 +15138,7 @@
       <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C125" s="7" t="s">
@@ -15157,7 +15157,7 @@
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B126" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -15176,7 +15176,7 @@
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="38" t="s">
+      <c r="B127" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C127" s="7" t="s">
@@ -15195,7 +15195,7 @@
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C128" s="7" t="s">
@@ -15214,7 +15214,7 @@
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C129" s="7" t="s">
@@ -15233,7 +15233,7 @@
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="38" t="s">
+      <c r="B130" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C130" s="7" t="s">
@@ -15252,7 +15252,7 @@
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B131" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C131" s="7" t="s">
@@ -15271,7 +15271,7 @@
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C132" s="7" t="s">
@@ -15290,7 +15290,7 @@
       <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="38" t="s">
+      <c r="B133" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C133" s="7" t="s">
@@ -15309,7 +15309,7 @@
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -15328,7 +15328,7 @@
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C135" s="7" t="s">
@@ -15347,7 +15347,7 @@
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="38" t="s">
+      <c r="B136" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C136" s="7" t="s">
@@ -15366,7 +15366,7 @@
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="B137" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -15385,7 +15385,7 @@
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="B138" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C138" s="7" t="s">
@@ -15404,7 +15404,7 @@
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="B139" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C139" s="7" t="s">
@@ -15423,7 +15423,7 @@
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="38" t="s">
+      <c r="B140" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C140" s="7" t="s">
@@ -15442,7 +15442,7 @@
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C141" s="7" t="s">
@@ -15461,7 +15461,7 @@
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -15480,7 +15480,7 @@
       <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="B143" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -15499,7 +15499,7 @@
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="B144" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C144" s="7" t="s">
@@ -15518,7 +15518,7 @@
       <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="38" t="s">
+      <c r="B145" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -15537,7 +15537,7 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="38" t="s">
+      <c r="B146" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C146" s="7" t="s">
@@ -15556,7 +15556,7 @@
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="B147" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C147" s="7" t="s">
@@ -15575,7 +15575,7 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="38" t="s">
+      <c r="B148" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C148" s="7" t="s">
@@ -15594,7 +15594,7 @@
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="38" t="s">
+      <c r="B149" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -15613,7 +15613,7 @@
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="38" t="s">
+      <c r="B150" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C150" s="7" t="s">
@@ -15632,7 +15632,7 @@
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="B151" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C151" s="7" t="s">
@@ -15651,7 +15651,7 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C152" s="7" t="s">
@@ -15670,7 +15670,7 @@
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="38" t="s">
+      <c r="B153" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -15689,7 +15689,7 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="38" t="s">
+      <c r="B154" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C154" s="7" t="s">
@@ -15708,7 +15708,7 @@
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="38" t="s">
+      <c r="B155" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C155" s="7" t="s">
@@ -15727,7 +15727,7 @@
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="38" t="s">
+      <c r="B156" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C156" s="7" t="s">
@@ -15746,7 +15746,7 @@
       <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="B157" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C157" s="7" t="s">
@@ -15765,7 +15765,7 @@
       <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="B158" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C158" s="7" t="s">
@@ -15784,7 +15784,7 @@
       <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="B159" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -15803,7 +15803,7 @@
       <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C160" s="7" t="s">
@@ -15822,7 +15822,7 @@
       <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B161" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C161" s="7" t="s">
@@ -15841,7 +15841,7 @@
       <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C162" s="7" t="s">
@@ -15860,7 +15860,7 @@
       <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="B163" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C163" s="7" t="s">
@@ -15879,7 +15879,7 @@
       <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C164" s="7" t="s">
@@ -15898,7 +15898,7 @@
       <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -15917,7 +15917,7 @@
       <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="38" t="s">
+      <c r="B166" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C166" s="7" t="s">
@@ -15936,7 +15936,7 @@
       <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="B167" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -15955,7 +15955,7 @@
       <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="38" t="s">
+      <c r="B168" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C168" s="7" t="s">
@@ -15974,7 +15974,7 @@
       <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="B169" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C169" s="7" t="s">
@@ -15993,7 +15993,7 @@
       <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="B170" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -16012,7 +16012,7 @@
       <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C171" s="7" t="s">
@@ -16031,7 +16031,7 @@
       <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="38" t="s">
+      <c r="B172" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C172" s="7" t="s">
@@ -16050,7 +16050,7 @@
       <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C173" s="7" t="s">
@@ -16069,7 +16069,7 @@
       <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -16088,7 +16088,7 @@
       <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="B175" s="38" t="s">
+      <c r="B175" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C175" s="7" t="s">
@@ -16107,7 +16107,7 @@
       <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="B176" s="38" t="s">
+      <c r="B176" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C176" s="7" t="s">
@@ -16126,7 +16126,7 @@
       <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="B177" s="38" t="s">
+      <c r="B177" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C177" s="7" t="s">
@@ -16145,7 +16145,7 @@
       <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="B178" s="38" t="s">
+      <c r="B178" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -16164,7 +16164,7 @@
       <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="B179" s="38" t="s">
+      <c r="B179" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -16183,7 +16183,7 @@
       <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C180" s="7" t="s">
@@ -16202,7 +16202,7 @@
       <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B181" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C181" s="7" t="s">
@@ -16221,7 +16221,7 @@
       <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B182" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C182" s="7" t="s">
@@ -16240,7 +16240,7 @@
       <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C183" s="7" t="s">
@@ -16259,7 +16259,7 @@
       <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C184" s="7" t="s">
@@ -16278,7 +16278,7 @@
       <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C185" s="7" t="s">
@@ -16297,7 +16297,7 @@
       <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C186" s="7" t="s">
@@ -16316,7 +16316,7 @@
       <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="B187" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C187" s="7" t="s">
@@ -16335,7 +16335,7 @@
       <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="B188" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C188" s="7" t="s">
@@ -16354,7 +16354,7 @@
       <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C189" s="7" t="s">
@@ -16373,7 +16373,7 @@
       <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C190" s="7" t="s">
@@ -16392,7 +16392,7 @@
       <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="B191" s="38" t="s">
+      <c r="B191" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -16411,7 +16411,7 @@
       <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="B192" s="38" t="s">
+      <c r="B192" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C192" s="7" t="s">
@@ -16430,7 +16430,7 @@
       <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="B193" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C193" s="7" t="s">
@@ -16449,7 +16449,7 @@
       <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C194" s="7" t="s">
@@ -16468,7 +16468,7 @@
       <c r="A195" s="7">
         <v>194</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C195" s="7" t="s">
@@ -16487,7 +16487,7 @@
       <c r="A196" s="7">
         <v>195</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C196" s="7" t="s">
@@ -16506,7 +16506,7 @@
       <c r="A197" s="7">
         <v>196</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C197" s="7" t="s">
@@ -16525,7 +16525,7 @@
       <c r="A198" s="7">
         <v>197</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C198" s="7" t="s">
@@ -16544,7 +16544,7 @@
       <c r="A199" s="7">
         <v>198</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B199" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -16568,13 +16568,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F259"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="63" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="63" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="L245" sqref="L245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
@@ -16606,7 +16606,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -16625,7 +16625,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -16644,7 +16644,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -16663,7 +16663,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -16682,7 +16682,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -16701,7 +16701,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -16720,7 +16720,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -16739,7 +16739,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -16758,7 +16758,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -16777,7 +16777,7 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -16796,7 +16796,7 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -16815,7 +16815,7 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -16834,7 +16834,7 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -16853,7 +16853,7 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -16872,7 +16872,7 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -16891,7 +16891,7 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -16910,7 +16910,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -16929,7 +16929,7 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -16948,7 +16948,7 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -16967,7 +16967,7 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -16986,7 +16986,7 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -17005,7 +17005,7 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -17024,7 +17024,7 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -17043,7 +17043,7 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -17062,7 +17062,7 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -17081,7 +17081,7 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -17100,7 +17100,7 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -17119,7 +17119,7 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -17138,7 +17138,7 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -17157,7 +17157,7 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -17176,7 +17176,7 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -17195,7 +17195,7 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -17214,7 +17214,7 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -17233,7 +17233,7 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -17252,7 +17252,7 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -17271,7 +17271,7 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -17290,7 +17290,7 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -17309,7 +17309,7 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -17328,7 +17328,7 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -17347,7 +17347,7 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -17366,7 +17366,7 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -17385,7 +17385,7 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -17404,7 +17404,7 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -17423,7 +17423,7 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -17442,7 +17442,7 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -17461,7 +17461,7 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -17480,7 +17480,7 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -17499,7 +17499,7 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -17518,7 +17518,7 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -17537,7 +17537,7 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -17556,7 +17556,7 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -17575,7 +17575,7 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -17594,7 +17594,7 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -17613,7 +17613,7 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -17632,7 +17632,7 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -17651,7 +17651,7 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -17670,7 +17670,7 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -17689,7 +17689,7 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -17708,7 +17708,7 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -17727,7 +17727,7 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -17746,7 +17746,7 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -17765,7 +17765,7 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -17784,7 +17784,7 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -17803,7 +17803,7 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -17822,7 +17822,7 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -17841,7 +17841,7 @@
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -17860,7 +17860,7 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -17879,7 +17879,7 @@
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -17898,7 +17898,7 @@
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -17917,7 +17917,7 @@
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -17936,7 +17936,7 @@
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -17955,7 +17955,7 @@
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -17974,7 +17974,7 @@
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -17993,7 +17993,7 @@
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C75" s="7" t="s">
@@ -18012,7 +18012,7 @@
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -18031,7 +18031,7 @@
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -18050,7 +18050,7 @@
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C78" s="7" t="s">
@@ -18069,7 +18069,7 @@
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C79" s="7" t="s">
@@ -18088,7 +18088,7 @@
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C80" s="7" t="s">
@@ -18107,7 +18107,7 @@
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C81" s="7" t="s">
@@ -18126,7 +18126,7 @@
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -18145,7 +18145,7 @@
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C83" s="7" t="s">
@@ -18164,7 +18164,7 @@
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C84" s="7" t="s">
@@ -18183,7 +18183,7 @@
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -18202,7 +18202,7 @@
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -18221,7 +18221,7 @@
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C87" s="12" t="s">
@@ -18240,7 +18240,7 @@
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C88" s="12" t="s">
@@ -18259,7 +18259,7 @@
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C89" s="12" t="s">
@@ -18278,7 +18278,7 @@
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C90" s="12" t="s">
@@ -18297,7 +18297,7 @@
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C91" s="12" t="s">
@@ -18316,7 +18316,7 @@
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -18335,7 +18335,7 @@
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -18354,7 +18354,7 @@
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C94" s="7" t="s">
@@ -18373,7 +18373,7 @@
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -18392,7 +18392,7 @@
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="38" t="s">
+      <c r="B96" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C96" s="7" t="s">
@@ -18411,7 +18411,7 @@
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C97" s="7" t="s">
@@ -18430,7 +18430,7 @@
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C98" s="7" t="s">
@@ -18449,7 +18449,7 @@
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C99" s="7" t="s">
@@ -18468,7 +18468,7 @@
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -18487,7 +18487,7 @@
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="B101" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C101" s="7" t="s">
@@ -18506,7 +18506,7 @@
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -18525,7 +18525,7 @@
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -18544,7 +18544,7 @@
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -18563,7 +18563,7 @@
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C105" s="7" t="s">
@@ -18582,7 +18582,7 @@
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="38" t="s">
+      <c r="B106" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -18601,7 +18601,7 @@
       <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="B107" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -18620,7 +18620,7 @@
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C108" s="7" t="s">
@@ -18639,7 +18639,7 @@
       <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="B109" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -18658,7 +18658,7 @@
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C110" s="7" t="s">
@@ -18677,7 +18677,7 @@
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="38" t="s">
+      <c r="B111" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C111" s="7" t="s">
@@ -18696,7 +18696,7 @@
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="38" t="s">
+      <c r="B112" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -18715,7 +18715,7 @@
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="38" t="s">
+      <c r="B113" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C113" s="7" t="s">
@@ -18734,7 +18734,7 @@
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="38" t="s">
+      <c r="B114" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C114" s="7" t="s">
@@ -18753,7 +18753,7 @@
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C115" s="7" t="s">
@@ -18772,7 +18772,7 @@
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -18791,7 +18791,7 @@
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="38" t="s">
+      <c r="B117" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C117" s="7" t="s">
@@ -18810,7 +18810,7 @@
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="38" t="s">
+      <c r="B118" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C118" s="7" t="s">
@@ -18829,7 +18829,7 @@
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="38" t="s">
+      <c r="B119" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C119" s="7" t="s">
@@ -18848,7 +18848,7 @@
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="38" t="s">
+      <c r="B120" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C120" s="7" t="s">
@@ -18867,7 +18867,7 @@
       <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="38" t="s">
+      <c r="B121" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C121" s="7" t="s">
@@ -18886,7 +18886,7 @@
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C122" s="7" t="s">
@@ -18905,7 +18905,7 @@
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="B123" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C123" s="7" t="s">
@@ -18924,7 +18924,7 @@
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C124" s="7" t="s">
@@ -18943,7 +18943,7 @@
       <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C125" s="7" t="s">
@@ -18962,7 +18962,7 @@
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B126" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -18981,7 +18981,7 @@
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="38" t="s">
+      <c r="B127" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C127" s="7" t="s">
@@ -19000,7 +19000,7 @@
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C128" s="7" t="s">
@@ -19019,7 +19019,7 @@
       <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C129" s="7" t="s">
@@ -19038,7 +19038,7 @@
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="38" t="s">
+      <c r="B130" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C130" s="7" t="s">
@@ -19057,7 +19057,7 @@
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B131" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C131" s="7" t="s">
@@ -19076,7 +19076,7 @@
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C132" s="7" t="s">
@@ -19095,7 +19095,7 @@
       <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="38" t="s">
+      <c r="B133" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C133" s="7" t="s">
@@ -19114,7 +19114,7 @@
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -19133,7 +19133,7 @@
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C135" s="7" t="s">
@@ -19152,7 +19152,7 @@
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="38" t="s">
+      <c r="B136" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C136" s="7" t="s">
@@ -19171,7 +19171,7 @@
       <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="B137" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -19190,7 +19190,7 @@
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="B138" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C138" s="7" t="s">
@@ -19209,7 +19209,7 @@
       <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="B139" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C139" s="7" t="s">
@@ -19228,7 +19228,7 @@
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="38" t="s">
+      <c r="B140" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C140" s="7" t="s">
@@ -19247,7 +19247,7 @@
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C141" s="7" t="s">
@@ -19266,7 +19266,7 @@
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -19285,7 +19285,7 @@
       <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="B143" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -19304,7 +19304,7 @@
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="B144" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C144" s="7" t="s">
@@ -19323,7 +19323,7 @@
       <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="38" t="s">
+      <c r="B145" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -19342,7 +19342,7 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="38" t="s">
+      <c r="B146" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C146" s="7" t="s">
@@ -19361,7 +19361,7 @@
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="B147" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C147" s="7" t="s">
@@ -19380,7 +19380,7 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="38" t="s">
+      <c r="B148" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C148" s="7" t="s">
@@ -19399,7 +19399,7 @@
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="38" t="s">
+      <c r="B149" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -19418,7 +19418,7 @@
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="38" t="s">
+      <c r="B150" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C150" s="7" t="s">
@@ -19437,7 +19437,7 @@
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="B151" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C151" s="7" t="s">
@@ -19456,7 +19456,7 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C152" s="7" t="s">
@@ -19475,7 +19475,7 @@
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="38" t="s">
+      <c r="B153" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -19494,7 +19494,7 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="38" t="s">
+      <c r="B154" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C154" s="7" t="s">
@@ -19513,7 +19513,7 @@
       <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="38" t="s">
+      <c r="B155" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C155" s="7" t="s">
@@ -19532,7 +19532,7 @@
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="38" t="s">
+      <c r="B156" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C156" s="7" t="s">
@@ -19551,7 +19551,7 @@
       <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="B157" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C157" s="7" t="s">
@@ -19570,7 +19570,7 @@
       <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="B158" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C158" s="7" t="s">
@@ -19589,7 +19589,7 @@
       <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="B159" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -19608,7 +19608,7 @@
       <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C160" s="7" t="s">
@@ -19627,7 +19627,7 @@
       <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B161" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C161" s="7" t="s">
@@ -19646,7 +19646,7 @@
       <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C162" s="7" t="s">
@@ -19665,7 +19665,7 @@
       <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="B163" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C163" s="7" t="s">
@@ -19684,7 +19684,7 @@
       <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C164" s="7" t="s">
@@ -19703,7 +19703,7 @@
       <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C165" s="7" t="s">
@@ -19722,7 +19722,7 @@
       <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="38" t="s">
+      <c r="B166" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C166" s="7" t="s">
@@ -19741,7 +19741,7 @@
       <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="B167" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -19760,7 +19760,7 @@
       <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="38" t="s">
+      <c r="B168" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C168" s="7" t="s">
@@ -19779,7 +19779,7 @@
       <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="B169" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C169" s="7" t="s">
@@ -19798,7 +19798,7 @@
       <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="B170" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -19817,7 +19817,7 @@
       <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C171" s="7" t="s">
@@ -19836,7 +19836,7 @@
       <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="38" t="s">
+      <c r="B172" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C172" s="7" t="s">
@@ -19855,7 +19855,7 @@
       <c r="A173" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C173" s="11" t="s">
@@ -19874,7 +19874,7 @@
       <c r="A174" s="7">
         <v>173</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -19893,7 +19893,7 @@
       <c r="A175" s="7">
         <v>174</v>
       </c>
-      <c r="B175" s="38" t="s">
+      <c r="B175" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C175" s="7" t="s">
@@ -19912,7 +19912,7 @@
       <c r="A176" s="7">
         <v>175</v>
       </c>
-      <c r="B176" s="38" t="s">
+      <c r="B176" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C176" s="7" t="s">
@@ -19931,7 +19931,7 @@
       <c r="A177" s="7">
         <v>176</v>
       </c>
-      <c r="B177" s="38" t="s">
+      <c r="B177" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C177" s="7" t="s">
@@ -19950,7 +19950,7 @@
       <c r="A178" s="7">
         <v>177</v>
       </c>
-      <c r="B178" s="38" t="s">
+      <c r="B178" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -19969,7 +19969,7 @@
       <c r="A179" s="7">
         <v>178</v>
       </c>
-      <c r="B179" s="38" t="s">
+      <c r="B179" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -19988,7 +19988,7 @@
       <c r="A180" s="7">
         <v>179</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C180" s="7" t="s">
@@ -20007,7 +20007,7 @@
       <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B181" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C181" s="7" t="s">
@@ -20026,7 +20026,7 @@
       <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B182" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C182" s="7" t="s">
@@ -20045,7 +20045,7 @@
       <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C183" s="7" t="s">
@@ -20064,7 +20064,7 @@
       <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C184" s="12" t="s">
@@ -20083,7 +20083,7 @@
       <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C185" s="12" t="s">
@@ -20102,7 +20102,7 @@
       <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C186" s="12" t="s">
@@ -20121,7 +20121,7 @@
       <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="B187" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C187" s="12" t="s">
@@ -20140,7 +20140,7 @@
       <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="B188" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C188" s="12" t="s">
@@ -20159,7 +20159,7 @@
       <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C189" s="12" t="s">
@@ -20178,7 +20178,7 @@
       <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C190" s="12" t="s">
@@ -20197,7 +20197,7 @@
       <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="B191" s="38" t="s">
+      <c r="B191" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C191" s="12" t="s">
@@ -20216,7 +20216,7 @@
       <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="B192" s="38" t="s">
+      <c r="B192" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C192" s="12" t="s">
@@ -20235,7 +20235,7 @@
       <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="B193" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C193" s="12" t="s">
@@ -20254,7 +20254,7 @@
       <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C194" s="12" t="s">
@@ -20273,7 +20273,7 @@
       <c r="A195" s="7">
         <v>194</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C195" s="12" t="s">
@@ -20292,7 +20292,7 @@
       <c r="A196" s="7">
         <v>195</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C196" s="12" t="s">
@@ -20311,7 +20311,7 @@
       <c r="A197" s="7">
         <v>196</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C197" s="12" t="s">
@@ -20330,7 +20330,7 @@
       <c r="A198" s="7">
         <v>197</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C198" s="7" t="s">
@@ -20349,7 +20349,7 @@
       <c r="A199" s="7">
         <v>198</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B199" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -20368,7 +20368,7 @@
       <c r="A200" s="7">
         <v>199</v>
       </c>
-      <c r="B200" s="38" t="s">
+      <c r="B200" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C200" s="7" t="s">
@@ -20387,7 +20387,7 @@
       <c r="A201" s="7">
         <v>200</v>
       </c>
-      <c r="B201" s="38" t="s">
+      <c r="B201" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -20406,7 +20406,7 @@
       <c r="A202" s="7">
         <v>201</v>
       </c>
-      <c r="B202" s="38" t="s">
+      <c r="B202" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C202" s="7" t="s">
@@ -20425,7 +20425,7 @@
       <c r="A203" s="7">
         <v>202</v>
       </c>
-      <c r="B203" s="38" t="s">
+      <c r="B203" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -20444,7 +20444,7 @@
       <c r="A204" s="7">
         <v>203</v>
       </c>
-      <c r="B204" s="38" t="s">
+      <c r="B204" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C204" s="7" t="s">
@@ -20463,7 +20463,7 @@
       <c r="A205" s="7">
         <v>204</v>
       </c>
-      <c r="B205" s="38" t="s">
+      <c r="B205" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C205" s="7" t="s">
@@ -20482,7 +20482,7 @@
       <c r="A206" s="7">
         <v>205</v>
       </c>
-      <c r="B206" s="38" t="s">
+      <c r="B206" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C206" s="7" t="s">
@@ -20501,7 +20501,7 @@
       <c r="A207" s="7">
         <v>206</v>
       </c>
-      <c r="B207" s="38" t="s">
+      <c r="B207" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -20520,7 +20520,7 @@
       <c r="A208" s="7">
         <v>207</v>
       </c>
-      <c r="B208" s="38" t="s">
+      <c r="B208" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C208" s="7" t="s">
@@ -20539,7 +20539,7 @@
       <c r="A209" s="7">
         <v>208</v>
       </c>
-      <c r="B209" s="38" t="s">
+      <c r="B209" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C209" s="11" t="s">
@@ -20558,7 +20558,7 @@
       <c r="A210" s="7">
         <v>209</v>
       </c>
-      <c r="B210" s="38" t="s">
+      <c r="B210" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C210" s="7" t="s">
@@ -20577,7 +20577,7 @@
       <c r="A211" s="7">
         <v>210</v>
       </c>
-      <c r="B211" s="38" t="s">
+      <c r="B211" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C211" s="7" t="s">
@@ -20596,7 +20596,7 @@
       <c r="A212" s="7">
         <v>211</v>
       </c>
-      <c r="B212" s="38" t="s">
+      <c r="B212" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C212" s="7" t="s">
@@ -20615,7 +20615,7 @@
       <c r="A213" s="7">
         <v>212</v>
       </c>
-      <c r="B213" s="38" t="s">
+      <c r="B213" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C213" s="7" t="s">
@@ -20634,7 +20634,7 @@
       <c r="A214" s="7">
         <v>213</v>
       </c>
-      <c r="B214" s="38" t="s">
+      <c r="B214" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C214" s="7" t="s">
@@ -20653,7 +20653,7 @@
       <c r="A215" s="7">
         <v>214</v>
       </c>
-      <c r="B215" s="38" t="s">
+      <c r="B215" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C215" s="7" t="s">
@@ -20672,7 +20672,7 @@
       <c r="A216" s="7">
         <v>215</v>
       </c>
-      <c r="B216" s="38" t="s">
+      <c r="B216" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C216" s="7" t="s">
@@ -20691,7 +20691,7 @@
       <c r="A217" s="7">
         <v>216</v>
       </c>
-      <c r="B217" s="38" t="s">
+      <c r="B217" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C217" s="7" t="s">
@@ -20710,7 +20710,7 @@
       <c r="A218" s="7">
         <v>217</v>
       </c>
-      <c r="B218" s="38" t="s">
+      <c r="B218" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C218" s="7" t="s">
@@ -20729,7 +20729,7 @@
       <c r="A219" s="7">
         <v>218</v>
       </c>
-      <c r="B219" s="38" t="s">
+      <c r="B219" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C219" s="7" t="s">
@@ -20748,7 +20748,7 @@
       <c r="A220" s="7">
         <v>219</v>
       </c>
-      <c r="B220" s="38" t="s">
+      <c r="B220" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C220" s="12" t="s">
@@ -20767,7 +20767,7 @@
       <c r="A221" s="7">
         <v>220</v>
       </c>
-      <c r="B221" s="38" t="s">
+      <c r="B221" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C221" s="12" t="s">
@@ -20786,7 +20786,7 @@
       <c r="A222" s="7">
         <v>221</v>
       </c>
-      <c r="B222" s="38" t="s">
+      <c r="B222" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C222" s="12" t="s">
@@ -20805,7 +20805,7 @@
       <c r="A223" s="7">
         <v>222</v>
       </c>
-      <c r="B223" s="38" t="s">
+      <c r="B223" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C223" s="12" t="s">
@@ -20824,7 +20824,7 @@
       <c r="A224" s="7">
         <v>223</v>
       </c>
-      <c r="B224" s="38" t="s">
+      <c r="B224" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C224" s="12" t="s">
@@ -20843,7 +20843,7 @@
       <c r="A225" s="7">
         <v>224</v>
       </c>
-      <c r="B225" s="38" t="s">
+      <c r="B225" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C225" s="12" t="s">
@@ -20862,7 +20862,7 @@
       <c r="A226" s="7">
         <v>225</v>
       </c>
-      <c r="B226" s="38" t="s">
+      <c r="B226" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C226" s="12" t="s">
@@ -20881,7 +20881,7 @@
       <c r="A227" s="7">
         <v>226</v>
       </c>
-      <c r="B227" s="38" t="s">
+      <c r="B227" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C227" s="12" t="s">
@@ -20900,7 +20900,7 @@
       <c r="A228" s="7">
         <v>227</v>
       </c>
-      <c r="B228" s="38" t="s">
+      <c r="B228" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C228" s="12" t="s">
@@ -20919,7 +20919,7 @@
       <c r="A229" s="7">
         <v>228</v>
       </c>
-      <c r="B229" s="38" t="s">
+      <c r="B229" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C229" s="12" t="s">
@@ -20938,7 +20938,7 @@
       <c r="A230" s="7">
         <v>229</v>
       </c>
-      <c r="B230" s="38" t="s">
+      <c r="B230" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C230" s="12" t="s">
@@ -20957,7 +20957,7 @@
       <c r="A231" s="7">
         <v>230</v>
       </c>
-      <c r="B231" s="38" t="s">
+      <c r="B231" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C231" s="12" t="s">
@@ -20976,7 +20976,7 @@
       <c r="A232" s="7">
         <v>231</v>
       </c>
-      <c r="B232" s="38" t="s">
+      <c r="B232" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C232" s="12" t="s">
@@ -20995,7 +20995,7 @@
       <c r="A233" s="7">
         <v>232</v>
       </c>
-      <c r="B233" s="38" t="s">
+      <c r="B233" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C233" s="12" t="s">
@@ -21014,7 +21014,7 @@
       <c r="A234" s="7">
         <v>233</v>
       </c>
-      <c r="B234" s="38" t="s">
+      <c r="B234" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C234" s="12" t="s">
@@ -21033,7 +21033,7 @@
       <c r="A235" s="7">
         <v>234</v>
       </c>
-      <c r="B235" s="38" t="s">
+      <c r="B235" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C235" s="12" t="s">
@@ -21052,7 +21052,7 @@
       <c r="A236" s="7">
         <v>235</v>
       </c>
-      <c r="B236" s="38" t="s">
+      <c r="B236" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C236" s="12" t="s">
@@ -21071,7 +21071,7 @@
       <c r="A237" s="7">
         <v>236</v>
       </c>
-      <c r="B237" s="38" t="s">
+      <c r="B237" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C237" s="12" t="s">
@@ -21090,7 +21090,7 @@
       <c r="A238" s="7">
         <v>237</v>
       </c>
-      <c r="B238" s="38" t="s">
+      <c r="B238" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C238" s="12" t="s">
@@ -21109,7 +21109,7 @@
       <c r="A239" s="7">
         <v>238</v>
       </c>
-      <c r="B239" s="38" t="s">
+      <c r="B239" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C239" s="12" t="s">
@@ -21128,7 +21128,7 @@
       <c r="A240" s="7">
         <v>239</v>
       </c>
-      <c r="B240" s="38" t="s">
+      <c r="B240" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C240" s="7" t="s">
@@ -21147,7 +21147,7 @@
       <c r="A241" s="7">
         <v>240</v>
       </c>
-      <c r="B241" s="38" t="s">
+      <c r="B241" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C241" s="7" t="s">
@@ -21166,7 +21166,7 @@
       <c r="A242" s="7">
         <v>241</v>
       </c>
-      <c r="B242" s="38" t="s">
+      <c r="B242" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C242" s="7" t="s">
@@ -21185,7 +21185,7 @@
       <c r="A243" s="7">
         <v>242</v>
       </c>
-      <c r="B243" s="38" t="s">
+      <c r="B243" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C243" s="7" t="s">
@@ -21204,7 +21204,7 @@
       <c r="A244" s="7">
         <v>243</v>
       </c>
-      <c r="B244" s="38" t="s">
+      <c r="B244" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C244" s="7" t="s">
@@ -21223,7 +21223,7 @@
       <c r="A245" s="7">
         <v>244</v>
       </c>
-      <c r="B245" s="38" t="s">
+      <c r="B245" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -21242,7 +21242,7 @@
       <c r="A246" s="7">
         <v>245</v>
       </c>
-      <c r="B246" s="38" t="s">
+      <c r="B246" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C246" s="7" t="s">
@@ -21261,7 +21261,7 @@
       <c r="A247" s="7">
         <v>246</v>
       </c>
-      <c r="B247" s="38" t="s">
+      <c r="B247" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C247" s="7" t="s">
@@ -21280,7 +21280,7 @@
       <c r="A248" s="7">
         <v>247</v>
       </c>
-      <c r="B248" s="38" t="s">
+      <c r="B248" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C248" s="7" t="s">
@@ -21299,7 +21299,7 @@
       <c r="A249" s="7">
         <v>248</v>
       </c>
-      <c r="B249" s="38" t="s">
+      <c r="B249" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C249" s="7" t="s">
@@ -21318,7 +21318,7 @@
       <c r="A250" s="7">
         <v>249</v>
       </c>
-      <c r="B250" s="38" t="s">
+      <c r="B250" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C250" s="7" t="s">
@@ -21337,7 +21337,7 @@
       <c r="A251" s="7">
         <v>250</v>
       </c>
-      <c r="B251" s="38" t="s">
+      <c r="B251" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C251" s="11" t="s">
@@ -21356,7 +21356,7 @@
       <c r="A252" s="7">
         <v>251</v>
       </c>
-      <c r="B252" s="38" t="s">
+      <c r="B252" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C252" s="7" t="s">
@@ -21375,7 +21375,7 @@
       <c r="A253" s="7">
         <v>252</v>
       </c>
-      <c r="B253" s="38" t="s">
+      <c r="B253" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C253" s="7" t="s">
@@ -21394,7 +21394,7 @@
       <c r="A254" s="7">
         <v>253</v>
       </c>
-      <c r="B254" s="38" t="s">
+      <c r="B254" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C254" s="7" t="s">
@@ -21413,7 +21413,7 @@
       <c r="A255" s="7">
         <v>254</v>
       </c>
-      <c r="B255" s="38" t="s">
+      <c r="B255" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C255" s="7" t="s">
@@ -21432,7 +21432,7 @@
       <c r="A256" s="7">
         <v>255</v>
       </c>
-      <c r="B256" s="38" t="s">
+      <c r="B256" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C256" s="7" t="s">
@@ -21451,7 +21451,7 @@
       <c r="A257" s="7">
         <v>256</v>
       </c>
-      <c r="B257" s="38" t="s">
+      <c r="B257" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C257" s="7" t="s">
@@ -21470,7 +21470,7 @@
       <c r="A258" s="7">
         <v>257</v>
       </c>
-      <c r="B258" s="38" t="s">
+      <c r="B258" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C258" s="7" t="s">
@@ -21489,7 +21489,7 @@
       <c r="A259" s="7">
         <v>258</v>
       </c>
-      <c r="B259" s="38" t="s">
+      <c r="B259" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C259" s="7" t="s">
@@ -21513,8 +21513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection sqref="A1:F159"/>
+    <sheetView topLeftCell="A133" zoomScale="83" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
